--- a/Running projects/Food Court North Walk/334 Invoice for food courts HVAC Work (remaining amount).xlsx
+++ b/Running projects/Food Court North Walk/334 Invoice for food courts HVAC Work (remaining amount).xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27126"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDEFE300-767C-4110-BC89-1BA3F26D799D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C801D619-DAF2-42B6-8548-BE6E2864FCE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -12,7 +12,7 @@
     <sheet name="working" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">HVAC!$A$1:$F$30</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">HVAC!$G$28:$L$54</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">HVAC!$13:$15</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="47">
   <si>
     <t>S. #</t>
   </si>
@@ -110,6 +110,57 @@
   </si>
   <si>
     <t>334</t>
+  </si>
+  <si>
+    <t>HVAC</t>
+  </si>
+  <si>
+    <t>Received</t>
+  </si>
+  <si>
+    <t>FIRE SCOPE</t>
+  </si>
+  <si>
+    <t>HVAC SCOPE</t>
+  </si>
+  <si>
+    <t>Material</t>
+  </si>
+  <si>
+    <t>Labour</t>
+  </si>
+  <si>
+    <t>Work Order</t>
+  </si>
+  <si>
+    <t>FIRE</t>
+  </si>
+  <si>
+    <t>GRAND TOTAL</t>
+  </si>
+  <si>
+    <t>TOTAL</t>
+  </si>
+  <si>
+    <t>FINAL BILL</t>
+  </si>
+  <si>
+    <t>PAYABLE AMOUNT</t>
+  </si>
+  <si>
+    <t>C) OUT DOOR DUCT GLASSWOOL INSULATION REPLACED WITH PU INSULATION</t>
+  </si>
+  <si>
+    <t>D) DUCT AND CLADDING INCREASED</t>
+  </si>
+  <si>
+    <t>AMOUNT INCREASED DUE THE FOLLOWING</t>
+  </si>
+  <si>
+    <t>A) KITCHENS EXHAUST DUCTINGS AND INSULATION</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B) INDOOR AREA GLASSWOOL INSULATION REPLACED WITH XLPE INSULATION </t>
   </si>
 </sst>
 </file>
@@ -121,7 +172,7 @@
     <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="166" formatCode="0.00000%"/>
   </numFmts>
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -219,13 +270,58 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="5">
@@ -290,7 +386,7 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -391,6 +487,34 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="13" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="16" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -420,8 +544,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>680085</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>1899285</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
@@ -630,16 +754,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>336550</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>479425</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>200025</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>552739</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>105064</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -668,7 +792,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11356975" y="15055850"/>
+          <a:off x="14023975" y="6143625"/>
           <a:ext cx="806739" cy="619125"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -968,10 +1092,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A5:J48"/>
+  <dimension ref="A5:M54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G53" sqref="G53:L53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
@@ -984,13 +1108,16 @@
     <col min="6" max="6" width="14.5703125" style="3" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11.140625" style="2" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="8.85546875" style="2"/>
-    <col min="9" max="9" width="18.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="8.85546875" style="2"/>
+    <col min="9" max="9" width="33.42578125" style="2" customWidth="1"/>
+    <col min="10" max="10" width="18.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.85546875" style="2"/>
+    <col min="12" max="12" width="16" style="2" customWidth="1"/>
+    <col min="13" max="13" width="19.5703125" style="2" customWidth="1"/>
+    <col min="14" max="16384" width="8.85546875" style="2"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="9" t="s">
         <v>7</v>
       </c>
@@ -1004,7 +1131,7 @@
         <v>45289</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="9" t="s">
         <v>9</v>
       </c>
@@ -1018,7 +1145,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="29"/>
       <c r="B8" s="29"/>
       <c r="C8" s="29"/>
@@ -1030,8 +1157,8 @@
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="5.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="10" spans="1:7" s="8" customFormat="1" ht="30.6" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:10" ht="5.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="10" spans="1:10" s="8" customFormat="1" ht="30.6" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="41" t="s">
         <v>20</v>
       </c>
@@ -1040,24 +1167,27 @@
       <c r="D10" s="41"/>
       <c r="E10" s="41"/>
       <c r="F10" s="41"/>
-    </row>
-    <row r="11" spans="1:7" s="8" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="J10" s="42"/>
+    </row>
+    <row r="11" spans="1:10" s="8" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="38"/>
       <c r="B11" s="38"/>
       <c r="C11" s="38"/>
       <c r="D11" s="38"/>
       <c r="E11" s="38"/>
       <c r="F11" s="38"/>
-    </row>
-    <row r="12" spans="1:7" s="8" customFormat="1" ht="3" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="J11" s="42"/>
+    </row>
+    <row r="12" spans="1:10" s="8" customFormat="1" ht="3" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="14"/>
       <c r="B12" s="14"/>
       <c r="C12" s="14"/>
       <c r="D12" s="14"/>
       <c r="E12" s="14"/>
       <c r="F12" s="14"/>
-    </row>
-    <row r="13" spans="1:7" s="8" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+      <c r="J12" s="42"/>
+    </row>
+    <row r="13" spans="1:10" s="8" customFormat="1" ht="21" x14ac:dyDescent="0.35">
       <c r="A13" s="38" t="s">
         <v>26</v>
       </c>
@@ -1066,16 +1196,18 @@
       <c r="D13" s="38"/>
       <c r="E13" s="38"/>
       <c r="F13" s="38"/>
-    </row>
-    <row r="14" spans="1:7" s="8" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="J13" s="42"/>
+    </row>
+    <row r="14" spans="1:10" s="8" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="14"/>
       <c r="B14" s="14"/>
       <c r="C14" s="14"/>
       <c r="D14" s="14"/>
       <c r="E14" s="14"/>
       <c r="F14" s="14"/>
-    </row>
-    <row r="15" spans="1:7" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J14" s="42"/>
+    </row>
+    <row r="15" spans="1:10" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="11" t="s">
         <v>0</v>
       </c>
@@ -1095,7 +1227,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="73.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" ht="73.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="31">
         <v>1</v>
       </c>
@@ -1117,7 +1249,7 @@
       </c>
       <c r="G16" s="10"/>
     </row>
-    <row r="17" spans="1:10" ht="63" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:13" ht="63" x14ac:dyDescent="0.3">
       <c r="A17" s="31">
         <v>2</v>
       </c>
@@ -1138,9 +1270,8 @@
         <v>1393110</v>
       </c>
       <c r="G17" s="10"/>
-      <c r="J17" s="10"/>
-    </row>
-    <row r="18" spans="1:10" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="18" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="31">
         <v>3</v>
       </c>
@@ -1162,7 +1293,7 @@
       </c>
       <c r="G18" s="10"/>
     </row>
-    <row r="19" spans="1:10" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:13" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="31">
         <v>4</v>
       </c>
@@ -1184,7 +1315,7 @@
       </c>
       <c r="G19" s="10"/>
     </row>
-    <row r="20" spans="1:10" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:13" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="31">
         <v>5</v>
       </c>
@@ -1206,7 +1337,7 @@
       </c>
       <c r="G20" s="10"/>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A21" s="39" t="s">
         <v>4</v>
       </c>
@@ -1219,91 +1350,297 @@
         <v>2159285</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A22" s="36"/>
       <c r="B22" s="36"/>
       <c r="C22" s="36"/>
       <c r="D22" s="36"/>
       <c r="E22" s="36"/>
       <c r="F22" s="37"/>
-    </row>
-    <row r="23" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I22" s="43" t="s">
+        <v>33</v>
+      </c>
+      <c r="J22" s="3">
+        <v>5455410</v>
+      </c>
+      <c r="L22" s="43" t="s">
+        <v>32</v>
+      </c>
+      <c r="M22" s="3">
+        <v>912446</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A23" s="13" t="s">
         <v>8</v>
       </c>
       <c r="B23" s="5"/>
       <c r="E23" s="18"/>
-      <c r="I23" s="10"/>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I23" s="44" t="s">
+        <v>31</v>
+      </c>
+      <c r="J23" s="3">
+        <v>2874349</v>
+      </c>
+      <c r="L23" s="44" t="s">
+        <v>31</v>
+      </c>
+      <c r="M23" s="3">
+        <v>446950</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A24" s="4"/>
       <c r="B24" s="4"/>
       <c r="E24" s="19"/>
       <c r="G24" s="3"/>
-      <c r="I24" s="10"/>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I24" s="44"/>
+      <c r="J24" s="3">
+        <f>J22-J23</f>
+        <v>2581061</v>
+      </c>
+      <c r="L24" s="44"/>
+      <c r="M24" s="3">
+        <f>M22-M23</f>
+        <v>465496</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A25" s="6"/>
       <c r="B25" s="7"/>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I25" s="44" t="s">
+        <v>31</v>
+      </c>
+      <c r="J25" s="3">
+        <v>881091</v>
+      </c>
+      <c r="L25" s="44" t="s">
+        <v>31</v>
+      </c>
+      <c r="M25" s="3">
+        <v>191350</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="J26" s="3">
+        <f>J24-J25</f>
+        <v>1699970</v>
+      </c>
+      <c r="M26" s="3">
+        <f>M24-M25</f>
+        <v>274146</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
       <c r="I27" s="10"/>
     </row>
-    <row r="42" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="M28" s="10">
+        <f>M26+J26</f>
+        <v>1974116</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" ht="21" x14ac:dyDescent="0.35">
+      <c r="I30" s="50" t="s">
+        <v>36</v>
+      </c>
+      <c r="J30" s="50"/>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="I32" s="45" t="s">
+        <v>30</v>
+      </c>
+      <c r="J32" s="46">
+        <v>4299115</v>
+      </c>
+      <c r="M32" s="10">
+        <f>J23+J25+M23+M25</f>
+        <v>4393740</v>
+      </c>
+    </row>
+    <row r="33" spans="5:13" x14ac:dyDescent="0.3">
+      <c r="I33" s="45" t="s">
+        <v>37</v>
+      </c>
+      <c r="J33" s="46">
+        <v>912325</v>
+      </c>
+    </row>
+    <row r="34" spans="5:13" x14ac:dyDescent="0.3">
+      <c r="I34" s="47"/>
+      <c r="J34" s="48">
+        <f>SUM(J32:J33)</f>
+        <v>5211440</v>
+      </c>
+    </row>
+    <row r="37" spans="5:13" x14ac:dyDescent="0.3">
+      <c r="I37" s="51" t="s">
+        <v>40</v>
+      </c>
+      <c r="J37" s="51"/>
+    </row>
+    <row r="38" spans="5:13" x14ac:dyDescent="0.3">
+      <c r="E38" s="15"/>
+      <c r="F38" s="16" t="e">
+        <f>#REF!*D38</f>
+        <v>#REF!</v>
+      </c>
+      <c r="I38" s="47" t="s">
+        <v>34</v>
+      </c>
+      <c r="J38" s="46">
+        <v>5455410</v>
+      </c>
+    </row>
+    <row r="39" spans="5:13" x14ac:dyDescent="0.3">
+      <c r="E39" s="15"/>
+      <c r="F39" s="16" t="e">
+        <f>#REF!*D39</f>
+        <v>#REF!</v>
+      </c>
+      <c r="I39" s="47" t="s">
+        <v>35</v>
+      </c>
+      <c r="J39" s="46">
+        <v>1226592</v>
+      </c>
+    </row>
+    <row r="40" spans="5:13" x14ac:dyDescent="0.3">
+      <c r="E40" s="15"/>
+      <c r="F40" s="16" t="e">
+        <f>#REF!*D40</f>
+        <v>#REF!</v>
+      </c>
+      <c r="I40" s="49" t="s">
+        <v>39</v>
+      </c>
+      <c r="J40" s="48">
+        <f>SUM(J38:J39)</f>
+        <v>6682002</v>
+      </c>
+    </row>
+    <row r="41" spans="5:13" x14ac:dyDescent="0.3">
+      <c r="E41" s="15"/>
+      <c r="F41" s="16" t="e">
+        <f>#REF!*D41</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="42" spans="5:13" x14ac:dyDescent="0.3">
       <c r="E42" s="15"/>
       <c r="F42" s="16" t="e">
         <f>#REF!*D42</f>
         <v>#REF!</v>
       </c>
-    </row>
-    <row r="43" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="I42" s="47" t="s">
+        <v>34</v>
+      </c>
+      <c r="J42" s="46">
+        <v>500200</v>
+      </c>
+    </row>
+    <row r="43" spans="5:13" x14ac:dyDescent="0.3">
       <c r="E43" s="15"/>
       <c r="F43" s="16" t="e">
         <f>#REF!*D43</f>
         <v>#REF!</v>
       </c>
-    </row>
-    <row r="44" spans="5:6" x14ac:dyDescent="0.3">
-      <c r="E44" s="15"/>
-      <c r="F44" s="16" t="e">
-        <f>#REF!*D44</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="45" spans="5:6" x14ac:dyDescent="0.3">
-      <c r="E45" s="15"/>
-      <c r="F45" s="16" t="e">
-        <f>#REF!*D45</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="46" spans="5:6" x14ac:dyDescent="0.3">
-      <c r="E46" s="15"/>
-      <c r="F46" s="16" t="e">
-        <f>#REF!*D46</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="47" spans="5:6" x14ac:dyDescent="0.3">
-      <c r="E47" s="15"/>
-      <c r="F47" s="16" t="e">
-        <f>#REF!*D47</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="48" spans="5:6" x14ac:dyDescent="0.3">
-      <c r="E48" s="15"/>
-      <c r="F48" s="16" t="e">
-        <f>#REF!*D48</f>
-        <v>#REF!</v>
-      </c>
+      <c r="I43" s="47" t="s">
+        <v>35</v>
+      </c>
+      <c r="J43" s="46">
+        <v>239899</v>
+      </c>
+    </row>
+    <row r="44" spans="5:13" x14ac:dyDescent="0.3">
+      <c r="I44" s="49" t="s">
+        <v>39</v>
+      </c>
+      <c r="J44" s="48">
+        <f>SUM(J42:J43)</f>
+        <v>740099</v>
+      </c>
+    </row>
+    <row r="46" spans="5:13" x14ac:dyDescent="0.3">
+      <c r="I46" s="49" t="s">
+        <v>38</v>
+      </c>
+      <c r="J46" s="48">
+        <f>J44+J40</f>
+        <v>7422101</v>
+      </c>
+      <c r="M46" s="10"/>
+    </row>
+    <row r="48" spans="5:13" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="I48" s="54" t="s">
+        <v>41</v>
+      </c>
+      <c r="J48" s="55">
+        <f>J46-J34</f>
+        <v>2210661</v>
+      </c>
+    </row>
+    <row r="50" spans="7:12" x14ac:dyDescent="0.3">
+      <c r="G50" s="52" t="s">
+        <v>44</v>
+      </c>
+      <c r="H50" s="52"/>
+      <c r="I50" s="52"/>
+      <c r="J50" s="52"/>
+    </row>
+    <row r="51" spans="7:12" x14ac:dyDescent="0.3">
+      <c r="G51" s="53" t="s">
+        <v>45</v>
+      </c>
+      <c r="H51" s="53"/>
+      <c r="I51" s="53"/>
+      <c r="J51" s="53"/>
+      <c r="K51" s="53"/>
+      <c r="L51" s="53"/>
+    </row>
+    <row r="52" spans="7:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G52" s="53" t="s">
+        <v>46</v>
+      </c>
+      <c r="H52" s="53"/>
+      <c r="I52" s="53"/>
+      <c r="J52" s="53"/>
+      <c r="K52" s="53"/>
+      <c r="L52" s="53"/>
+    </row>
+    <row r="53" spans="7:12" x14ac:dyDescent="0.3">
+      <c r="G53" s="53" t="s">
+        <v>42</v>
+      </c>
+      <c r="H53" s="53"/>
+      <c r="I53" s="53"/>
+      <c r="J53" s="53"/>
+      <c r="K53" s="53"/>
+      <c r="L53" s="53"/>
+    </row>
+    <row r="54" spans="7:12" x14ac:dyDescent="0.3">
+      <c r="G54" s="53" t="s">
+        <v>43</v>
+      </c>
+      <c r="H54" s="53"/>
+      <c r="I54" s="53"/>
+      <c r="J54" s="53"/>
+      <c r="K54" s="53"/>
+      <c r="L54" s="53"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="11">
+    <mergeCell ref="G54:L54"/>
+    <mergeCell ref="G50:J50"/>
+    <mergeCell ref="I37:J37"/>
+    <mergeCell ref="G51:L51"/>
+    <mergeCell ref="G52:L52"/>
+    <mergeCell ref="G53:L53"/>
     <mergeCell ref="A13:F13"/>
     <mergeCell ref="A21:E21"/>
     <mergeCell ref="A10:F10"/>
     <mergeCell ref="A11:F11"/>
+    <mergeCell ref="I30:J30"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0" right="0" top="1.5748031496062993" bottom="0.23622047244094491" header="0.31496062992125984" footer="0.31496062992125984"/>
